--- a/tests/data/test_foreignkey.xlsx
+++ b/tests/data/test_foreignkey.xlsx
@@ -416,8 +416,8 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="No duplicates allowed in this column" sqref="A2:A65001">
-      <formula1>AND(COUNTIF(INDIRECT(ADDRESS(1,COLUMN()) &amp; ":" &amp; ADDRESS(65536, COLUMN())),THIS)=1)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Enter a value between -2147483648 and 2147483647&#10;No duplicates allowed in this column" sqref="A2:A65001">
+      <formula1>AND(ISNUMBER(VALUE(THIS)),COUNTIF(INDIRECT(ADDRESS(1,COLUMN()) &amp; ":" &amp; ADDRESS(65536, COLUMN())),THIS)=1,VALUE(THIS)&gt;=-2147483648,VALUE(THIS)&lt;=2147483647)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65001">
       <formula1>example.option!$B:$B</formula1>
